--- a/results/gurobi_cplex_comparison/seed_10_k_15.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_15.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.422</v>
       </c>
       <c r="F2">
-        <v>0.019</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.007</v>
+        <v>0.597</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.028</v>
+        <v>0.821</v>
       </c>
       <c r="F4">
-        <v>0.041</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.013</v>
+        <v>1.098</v>
       </c>
       <c r="F5">
-        <v>0.033</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.022</v>
+        <v>1.341</v>
       </c>
       <c r="F6">
-        <v>0.045</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.027</v>
+        <v>1.661</v>
       </c>
       <c r="F7">
-        <v>0.041</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.047</v>
+        <v>2.039</v>
       </c>
       <c r="F8">
-        <v>0.063</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.018</v>
+        <v>2.384</v>
       </c>
       <c r="F9">
-        <v>0.036</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.064</v>
+        <v>2.845</v>
       </c>
       <c r="F10">
-        <v>0.117</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.025</v>
+        <v>3.244</v>
       </c>
       <c r="F11">
-        <v>0.061</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.031</v>
+        <v>3.72</v>
       </c>
       <c r="F12">
-        <v>0.114</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.024</v>
+        <v>4.233</v>
       </c>
       <c r="F13">
-        <v>0.059</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.125</v>
+        <v>4.914</v>
       </c>
       <c r="F14">
-        <v>73.94799999999999</v>
+        <v>49.543</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.025</v>
+        <v>5.395</v>
       </c>
       <c r="F15">
-        <v>52.077</v>
+        <v>26.234</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.062</v>
+        <v>6.051</v>
       </c>
       <c r="F16">
-        <v>138.983</v>
+        <v>11.906</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.124</v>
+        <v>7.107</v>
       </c>
       <c r="F17">
-        <v>107.453</v>
+        <v>48.176</v>
       </c>
     </row>
   </sheetData>
